--- a/data/trans_orig/IP07C14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C14-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{771690C6-FB46-4C69-9C61-04255F7C8BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9627AE4A-72C8-48A6-B4DF-9AF4BD959BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{554F4458-61BC-4F1A-8DBE-46F80977B901}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D6878E32-9844-4168-8C18-5A51F5C4F21C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="723">
   <si>
     <t>Menores según frecuencia de preocuparse con su aspecto en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>37,95%</t>
+    <t>41,21%</t>
   </si>
   <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,2113 +106,2107 @@
     <t>10,73%</t>
   </si>
   <si>
-    <t>35,19%</t>
+    <t>33,95%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>8,29%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2016 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>35,61%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>21,91%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2015 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>18,93%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
   </si>
 </sst>
 </file>
@@ -2624,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49F88F8-EB63-4D50-B000-C717EC67B77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E1F15C-553D-4E7D-A5D0-A456A35E7727}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3125,10 +3119,10 @@
         <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -3137,10 +3131,10 @@
         <v>15406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>73</v>
@@ -3397,10 +3391,10 @@
         <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,10 +3412,10 @@
         <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -3430,13 +3424,13 @@
         <v>21070</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -3445,13 +3439,13 @@
         <v>34186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3460,13 @@
         <v>27719</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -3481,13 +3475,13 @@
         <v>31719</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>92</v>
@@ -3496,13 +3490,13 @@
         <v>59438</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3511,13 @@
         <v>13884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3532,13 +3526,13 @@
         <v>10181</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -3547,13 +3541,13 @@
         <v>24065</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3562,13 @@
         <v>27614</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -3583,13 +3577,13 @@
         <v>20530</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>74</v>
@@ -3598,13 +3592,13 @@
         <v>48144</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,7 +3654,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3672,13 +3666,13 @@
         <v>13244</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3687,13 +3681,13 @@
         <v>13155</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -3702,13 +3696,13 @@
         <v>26400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3717,13 @@
         <v>11151</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -3738,13 +3732,13 @@
         <v>9476</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -3753,13 +3747,13 @@
         <v>20627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3768,13 @@
         <v>19405</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3789,13 +3783,13 @@
         <v>16365</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>58</v>
@@ -3804,13 +3798,13 @@
         <v>35770</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3819,13 @@
         <v>6136</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3840,13 +3834,13 @@
         <v>8352</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -3855,13 +3849,13 @@
         <v>14488</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3870,13 @@
         <v>11441</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -3891,13 +3885,13 @@
         <v>8305</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -3906,10 +3900,10 @@
         <v>19746</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>187</v>
@@ -4046,13 +4040,13 @@
         <v>12468</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -4061,13 +4055,13 @@
         <v>27157</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4076,13 @@
         <v>22832</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -4097,13 +4091,13 @@
         <v>25644</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -4112,13 +4106,13 @@
         <v>48476</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4127,13 @@
         <v>14006</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -4148,13 +4142,13 @@
         <v>5837</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -4163,13 +4157,13 @@
         <v>19842</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4178,13 @@
         <v>23823</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -4199,13 +4193,13 @@
         <v>14689</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4214,13 +4208,13 @@
         <v>38512</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4282,13 @@
         <v>42009</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>90</v>
@@ -4303,13 +4297,13 @@
         <v>61144</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>152</v>
@@ -4318,13 +4312,13 @@
         <v>103153</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4333,13 @@
         <v>47060</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>83</v>
@@ -4354,13 +4348,13 @@
         <v>55373</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>153</v>
@@ -4369,13 +4363,13 @@
         <v>102434</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,7 +4599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541BC73F-FB75-48E6-8882-6A94EAC66C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805EE83-1E50-4D4C-85A3-9BFDE221D167}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4735,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4744,13 +4738,13 @@
         <v>4303</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4759,13 +4753,13 @@
         <v>5015</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4774,13 @@
         <v>2212</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4795,13 +4789,13 @@
         <v>1786</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4810,13 +4804,13 @@
         <v>3998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4825,13 @@
         <v>4791</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4846,13 +4840,13 @@
         <v>2666</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4861,13 +4855,13 @@
         <v>7457</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4876,13 @@
         <v>3676</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4897,13 +4891,13 @@
         <v>1594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4912,13 +4906,13 @@
         <v>5270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4927,13 @@
         <v>3099</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4948,13 +4942,13 @@
         <v>926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4963,13 +4957,13 @@
         <v>4025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5031,13 @@
         <v>8110</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5052,13 +5046,13 @@
         <v>11119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5067,13 +5061,13 @@
         <v>19228</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5082,13 @@
         <v>5880</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5103,13 +5097,13 @@
         <v>9901</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -5118,13 +5112,13 @@
         <v>15781</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5133,13 @@
         <v>16947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -5154,13 +5148,13 @@
         <v>12232</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -5169,13 +5163,13 @@
         <v>29179</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5184,13 @@
         <v>14237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5205,13 +5199,13 @@
         <v>10357</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5220,13 +5214,13 @@
         <v>24593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5235,13 @@
         <v>12314</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>253</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -5256,13 +5250,13 @@
         <v>8562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -5271,13 +5265,13 @@
         <v>20876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5339,13 @@
         <v>19706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5360,13 +5354,13 @@
         <v>17713</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -5375,13 +5369,13 @@
         <v>37419</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5390,13 @@
         <v>12946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -5411,13 +5405,13 @@
         <v>15340</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -5426,13 +5420,13 @@
         <v>28285</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>374</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5441,13 @@
         <v>23632</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -5462,13 +5456,13 @@
         <v>29130</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>80</v>
@@ -5477,13 +5471,13 @@
         <v>52762</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5492,13 @@
         <v>18725</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5513,13 +5507,13 @@
         <v>17565</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -5528,13 +5522,13 @@
         <v>36290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5543,13 @@
         <v>20158</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -5564,13 +5558,13 @@
         <v>18089</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -5579,13 +5573,13 @@
         <v>38248</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,7 +5635,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5653,13 +5647,13 @@
         <v>12457</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>395</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -5668,13 +5662,13 @@
         <v>19078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -5683,13 +5677,13 @@
         <v>31535</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>399</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5698,13 @@
         <v>11775</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -5719,13 +5713,13 @@
         <v>11979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -5734,13 +5728,13 @@
         <v>23754</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>409</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5749,13 @@
         <v>21477</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -5770,13 +5764,13 @@
         <v>13666</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>279</v>
+        <v>414</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -5785,13 +5779,13 @@
         <v>35142</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5800,13 @@
         <v>4207</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5821,13 +5815,13 @@
         <v>7750</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -5836,13 +5830,13 @@
         <v>11957</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5851,13 @@
         <v>19165</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>431</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -5872,13 +5866,13 @@
         <v>12172</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -5887,13 +5881,13 @@
         <v>31337</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5955,13 @@
         <v>16692</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>108</v>
+        <v>436</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -5976,13 +5970,13 @@
         <v>26349</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
@@ -5991,13 +5985,13 @@
         <v>43041</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,13 +6006,13 @@
         <v>10161</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -6027,13 +6021,13 @@
         <v>21736</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -6042,13 +6036,13 @@
         <v>31897</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6057,13 @@
         <v>28057</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>456</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -6078,13 +6072,13 @@
         <v>24718</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -6093,13 +6087,13 @@
         <v>52775</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6108,13 @@
         <v>16390</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6129,13 +6123,13 @@
         <v>3686</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -6144,13 +6138,13 @@
         <v>20077</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>472</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6159,13 @@
         <v>17863</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -6180,13 +6174,13 @@
         <v>9235</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>472</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -6195,13 +6189,13 @@
         <v>27097</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>478</v>
+        <v>114</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>298</v>
+        <v>475</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6263,13 @@
         <v>57677</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H34" s="7">
         <v>109</v>
@@ -6287,10 +6281,10 @@
         <v>265</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>352</v>
+        <v>480</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M34" s="7">
         <v>196</v>
@@ -6299,13 +6293,13 @@
         <v>136239</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,28 +6314,28 @@
         <v>42973</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H35" s="7">
         <v>86</v>
       </c>
       <c r="I35" s="7">
-        <v>60743</v>
+        <v>60742</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>489</v>
+        <v>424</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M35" s="7">
         <v>151</v>
@@ -6350,13 +6344,13 @@
         <v>103716</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6365,13 @@
         <v>94903</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>495</v>
+        <v>267</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H36" s="7">
         <v>116</v>
@@ -6386,13 +6380,13 @@
         <v>82413</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M36" s="7">
         <v>254</v>
@@ -6401,13 +6395,13 @@
         <v>177316</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>290</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6416,13 @@
         <v>57235</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H37" s="7">
         <v>59</v>
@@ -6437,13 +6431,13 @@
         <v>40952</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M37" s="7">
         <v>139</v>
@@ -6452,13 +6446,13 @@
         <v>98187</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>511</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6467,13 @@
         <v>72599</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>513</v>
+        <v>400</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H38" s="7">
         <v>73</v>
@@ -6488,13 +6482,13 @@
         <v>48983</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>147</v>
+        <v>510</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>364</v>
+        <v>31</v>
       </c>
       <c r="M38" s="7">
         <v>176</v>
@@ -6503,13 +6497,13 @@
         <v>121582</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6530,7 @@
         <v>443</v>
       </c>
       <c r="I39" s="7">
-        <v>311653</v>
+        <v>311652</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>55</v>
@@ -6586,7 +6580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD5233B-DC3D-4DB1-9400-4A0B551BF9C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964D673D-650C-4A3B-8F1B-6A7569B2EB0B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6603,7 +6597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6710,13 +6704,13 @@
         <v>2158</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6725,13 +6719,13 @@
         <v>4215</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>518</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6740,13 +6734,13 @@
         <v>6373</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>521</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6755,13 @@
         <v>562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6776,13 +6770,13 @@
         <v>3865</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6791,13 +6785,13 @@
         <v>4428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>532</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>533</v>
+        <v>305</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6806,13 @@
         <v>3348</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6833,7 +6827,7 @@
         <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>397</v>
+        <v>530</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -6842,13 +6836,13 @@
         <v>3348</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6857,13 @@
         <v>2436</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6878,13 +6872,13 @@
         <v>600</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -6893,13 +6887,13 @@
         <v>3036</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>544</v>
+        <v>406</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6908,13 @@
         <v>4702</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>541</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -6929,13 +6923,13 @@
         <v>4043</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -6944,13 +6938,13 @@
         <v>8745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +7012,13 @@
         <v>7398</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -7033,13 +7027,13 @@
         <v>8426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>559</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -7048,13 +7042,13 @@
         <v>15823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7063,13 @@
         <v>10716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -7084,13 +7078,13 @@
         <v>10054</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>561</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -7099,13 +7093,13 @@
         <v>20770</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>568</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>569</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,13 +7114,13 @@
         <v>16558</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -7135,13 +7129,13 @@
         <v>20912</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>138</v>
+        <v>567</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -7150,13 +7144,13 @@
         <v>37471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7165,13 @@
         <v>12747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>572</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>578</v>
+        <v>484</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -7186,13 +7180,13 @@
         <v>8390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>575</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>576</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -7201,13 +7195,13 @@
         <v>21137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>507</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7216,13 @@
         <v>10417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -7237,13 +7231,13 @@
         <v>7883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>584</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -7252,13 +7246,13 @@
         <v>18299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>472</v>
+        <v>585</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7320,13 @@
         <v>14705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>591</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -7341,13 +7335,13 @@
         <v>23500</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>589</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -7356,13 +7350,13 @@
         <v>38205</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,13 +7371,13 @@
         <v>21293</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>597</v>
+        <v>478</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>558</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -7392,13 +7386,13 @@
         <v>16236</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -7407,13 +7401,13 @@
         <v>37529</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>599</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,13 +7422,13 @@
         <v>20901</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>504</v>
+        <v>601</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -7443,13 +7437,13 @@
         <v>28614</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>605</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M18" s="7">
         <v>74</v>
@@ -7458,13 +7452,13 @@
         <v>49515</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7473,13 @@
         <v>17288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>611</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>608</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>612</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -7497,10 +7491,10 @@
         <v>189</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -7509,13 +7503,13 @@
         <v>32091</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>616</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,13 +7524,13 @@
         <v>29824</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -7545,13 +7539,13 @@
         <v>18945</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -7560,13 +7554,13 @@
         <v>48770</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,7 +7616,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7634,13 +7628,13 @@
         <v>14829</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -7649,13 +7643,13 @@
         <v>16681</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -7664,13 +7658,13 @@
         <v>31510</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7679,13 @@
         <v>13263</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>634</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -7700,13 +7694,13 @@
         <v>13720</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>637</v>
+        <v>550</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -7715,13 +7709,13 @@
         <v>26983</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>59</v>
+        <v>635</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>640</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7730,13 @@
         <v>15052</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>643</v>
+        <v>47</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -7751,13 +7745,13 @@
         <v>13576</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>292</v>
+        <v>640</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>225</v>
+        <v>428</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -7766,13 +7760,13 @@
         <v>28627</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7781,13 @@
         <v>10952</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>238</v>
+        <v>644</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>648</v>
+        <v>575</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -7802,13 +7796,13 @@
         <v>10606</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>365</v>
+        <v>646</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -7817,13 +7811,13 @@
         <v>21558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>652</v>
+        <v>586</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7832,13 @@
         <v>20526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -7853,13 +7847,13 @@
         <v>15326</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>657</v>
+        <v>552</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -7868,13 +7862,13 @@
         <v>35851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7936,13 @@
         <v>11968</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>660</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -7957,13 +7951,13 @@
         <v>21625</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>394</v>
+        <v>662</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -7972,13 +7966,13 @@
         <v>33592</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>667</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +7987,13 @@
         <v>21387</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>669</v>
+        <v>479</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>626</v>
+        <v>374</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -8008,13 +8002,13 @@
         <v>15863</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -8023,13 +8017,13 @@
         <v>37249</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>675</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8038,13 @@
         <v>19536</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
@@ -8059,13 +8053,13 @@
         <v>28273</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="M30" s="7">
         <v>63</v>
@@ -8074,13 +8068,13 @@
         <v>47808</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8089,13 @@
         <v>29640</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>682</v>
+        <v>645</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H31" s="7">
         <v>22</v>
@@ -8110,13 +8104,13 @@
         <v>16953</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="M31" s="7">
         <v>62</v>
@@ -8125,13 +8119,13 @@
         <v>46593</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>686</v>
+        <v>118</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,13 +8140,13 @@
         <v>16998</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="H32" s="7">
         <v>27</v>
@@ -8161,13 +8155,13 @@
         <v>21171</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -8176,13 +8170,13 @@
         <v>38168</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,13 +8244,13 @@
         <v>51057</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>246</v>
+        <v>688</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>544</v>
+        <v>689</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>583</v>
+        <v>690</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
@@ -8265,13 +8259,13 @@
         <v>74447</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>695</v>
+        <v>513</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="M34" s="7">
         <v>173</v>
@@ -8280,13 +8274,13 @@
         <v>125504</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>404</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,13 +8295,13 @@
         <v>67222</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>700</v>
+        <v>284</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="H35" s="7">
         <v>86</v>
@@ -8316,13 +8310,13 @@
         <v>59737</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>586</v>
+        <v>697</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="M35" s="7">
         <v>177</v>
@@ -8331,13 +8325,13 @@
         <v>126959</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,13 +8346,13 @@
         <v>75394</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>705</v>
+        <v>270</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>363</v>
+        <v>702</v>
       </c>
       <c r="H36" s="7">
         <v>131</v>
@@ -8367,13 +8361,13 @@
         <v>91375</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>708</v>
+        <v>589</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="M36" s="7">
         <v>235</v>
@@ -8382,13 +8376,13 @@
         <v>166768</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>308</v>
+        <v>706</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,13 +8397,13 @@
         <v>73064</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H37" s="7">
         <v>73</v>
@@ -8418,13 +8412,13 @@
         <v>51352</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M37" s="7">
         <v>173</v>
@@ -8433,13 +8427,13 @@
         <v>124416</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>313</v>
+        <v>714</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8454,13 +8448,13 @@
         <v>82467</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H38" s="7">
         <v>98</v>
@@ -8472,10 +8466,10 @@
         <v>69</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M38" s="7">
         <v>213</v>
@@ -8484,13 +8478,13 @@
         <v>149834</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>485</v>
+        <v>722</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
